--- a/Inputs/Inputs.xlsx
+++ b/Inputs/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-30\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD0C133-32ED-4046-94FD-5D8875505FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C11426-AEC8-4B51-9A4E-EEB4C4296056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5610" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <t>y_16</t>
   </si>
   <si>
-    <t>UnusefulIO</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>Trend</t>
+  </si>
+  <si>
+    <t>NoPrefChange</t>
   </si>
 </sst>
 </file>
@@ -874,11 +874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5A7D4-04A2-483C-82E8-978258BC79BD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,52 +924,52 @@
         <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -982,10 +982,10 @@
   <dimension ref="A1:BI132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:BI1"/>
+      <selection pane="bottomRight" activeCell="AX21" sqref="AX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49931,7 +49931,7 @@
         <v>2030</v>
       </c>
       <c r="W1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -54775,7 +54775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7406A56-82DD-4C01-B6DD-FF90907FE045}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -55046,7 +55046,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55064,7 +55064,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4">
         <v>1.2607352267624742E-2</v>
@@ -55086,7 +55086,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="4">
         <v>1.71178550410469E-2</v>
@@ -55097,7 +55097,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4">
         <v>2.3471366192929773E-2</v>
@@ -55108,7 +55108,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="4">
         <v>2.4252181522912513E-2</v>
@@ -55119,7 +55119,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="4">
         <v>3.8087429941938262E-3</v>
@@ -55130,7 +55130,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4">
         <v>1.4188676766056637E-2</v>
@@ -55141,7 +55141,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4">
         <v>5.1004706653938255E-2</v>
@@ -55152,7 +55152,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4">
         <v>0.76786990015477408</v>
@@ -55163,7 +55163,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="4">
         <v>6.2828481650819687E-3</v>
@@ -55174,7 +55174,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="4">
         <v>1.5966539367883028E-2</v>
@@ -55185,7 +55185,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="4">
         <v>1.2050260810599719E-2</v>
@@ -55196,7 +55196,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="4">
         <v>3.1937508515150069E-3</v>

--- a/Inputs/Inputs.xlsx
+++ b/Inputs/Inputs.xlsx
@@ -1,45 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-30\Inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C11426-AEC8-4B51-9A4E-EEB4C4296056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
     <sheet name="y_16" sheetId="1" r:id="rId2"/>
     <sheet name="y_pt" sheetId="3" r:id="rId3"/>
     <sheet name="Projected Trends" sheetId="4" r:id="rId4"/>
-    <sheet name="GDP" sheetId="2" r:id="rId5"/>
-    <sheet name="Aggregated GDP shares 16 vs 14" sheetId="6" r:id="rId6"/>
+    <sheet name="GDP" sheetId="7" r:id="rId5"/>
+    <sheet name="GDP_old" sheetId="9" r:id="rId6"/>
+    <sheet name="Aggregated GDP shares 16 vs 14" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="164">
   <si>
     <t>Products of agriculture, hunting and related services</t>
   </si>
@@ -536,11 +517,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +544,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,29 +567,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+  <cellStyles count="3">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 3" xfId="2"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -864,41 +852,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5A7D4-04A2-483C-82E8-978258BC79BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -978,22 +966,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX21" sqref="AX21"/>
+      <selection pane="bottomRight" activeCell="BK1" sqref="BK1:CA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>128</v>
       </c>
@@ -1175,7 +1163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2016</v>
       </c>
@@ -1357,7 +1345,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1530,7 @@
         <v>1.0737713454037612E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1715,7 @@
         <v>4.7159488520281766E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1900,7 @@
         <v>1.1074983787982536E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2085,7 @@
         <v>3.0429793286086654E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2270,7 @@
         <v>4.8991635152382931E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2455,7 @@
         <v>3.5997319546033336E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2640,7 @@
         <v>1.4760607992159878E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2825,7 @@
         <v>4.7527749087775328E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3022,7 +3010,7 @@
         <v>1.9036857751306404E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3207,7 +3195,7 @@
         <v>1.214545487474865E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3392,7 +3380,7 @@
         <v>1.5699119042240802E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3565,7 @@
         <v>1.2532530941182453E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3762,7 +3750,7 @@
         <v>8.8771926470640056E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3947,7 +3935,7 @@
         <v>5.3429476843604492E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4132,7 +4120,7 @@
         <v>1.1642970373638584E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4317,7 +4305,7 @@
         <v>1.2952056196965074E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4502,7 +4490,7 @@
         <v>1.5695144645405831E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4687,7 +4675,7 @@
         <v>1.4709846392077773E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4872,7 +4860,7 @@
         <v>4.9017896356786148E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5057,7 +5045,7 @@
         <v>3.3572384079673091E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5242,7 +5230,7 @@
         <v>1.0038370537544722E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5415,7 @@
         <v>2.0457126068370701E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5612,7 +5600,7 @@
         <v>7.0649683079584058E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5797,7 +5785,7 @@
         <v>1.0222852983036372E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5982,7 +5970,7 @@
         <v>2.4814322720016829E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6167,7 +6155,7 @@
         <v>4.7472409385009894E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6352,7 +6340,7 @@
         <v>6.0548174972066042E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6537,7 +6525,7 @@
         <v>1.4199211862014983E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -6722,7 +6710,7 @@
         <v>4.2547175838887022E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -6907,7 +6895,7 @@
         <v>5.9530880308775437E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -7092,7 +7080,7 @@
         <v>1.663164334265892E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -7277,7 +7265,7 @@
         <v>2.9032214247156178E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7462,7 +7450,7 @@
         <v>4.047948330828794E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -7647,7 +7635,7 @@
         <v>1.0909719311996696E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -7832,7 +7820,7 @@
         <v>5.9817187807355472E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -8017,7 +8005,7 @@
         <v>5.0110100854092864E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8202,7 +8190,7 @@
         <v>3.8639186647234057E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -8387,7 +8375,7 @@
         <v>3.796806697915153E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -8572,7 +8560,7 @@
         <v>9.237957200273884E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -8757,7 +8745,7 @@
         <v>1.3624785747309865E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -8942,7 +8930,7 @@
         <v>7.7442380049936562E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -9127,7 +9115,7 @@
         <v>9.9547572775482325E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -9312,7 +9300,7 @@
         <v>2.9463863928726498E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -9497,7 +9485,7 @@
         <v>1.7041106834302371E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9682,7 +9670,7 @@
         <v>7.5215711645938627E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -9867,7 +9855,7 @@
         <v>4.9911381012344297E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -10052,7 +10040,7 @@
         <v>2.3038421349453626E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -10237,7 +10225,7 @@
         <v>1.6980786558288056E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -10422,7 +10410,7 @@
         <v>1.2787999132675937E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -10607,7 +10595,7 @@
         <v>2.6247621021641358E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -10792,7 +10780,7 @@
         <v>2.5050774177287284E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -10977,7 +10965,7 @@
         <v>7.4311159049827383E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -11162,7 +11150,7 @@
         <v>3.7413160686876404E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -11347,7 +11335,7 @@
         <v>4.4470482054089037E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -11532,7 +11520,7 @@
         <v>6.0385275010652911E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -11717,7 +11705,7 @@
         <v>3.5714936135467577E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -11902,7 +11890,7 @@
         <v>6.1713427877023129E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -12087,7 +12075,7 @@
         <v>6.8064815872231716E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -12272,7 +12260,7 @@
         <v>8.2210650075488414E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -12457,7 +12445,7 @@
         <v>3.0059017277558301E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -12642,7 +12630,7 @@
         <v>1.7179959179422894E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -12827,7 +12815,7 @@
         <v>1.1379855241399333E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -13012,7 +13000,7 @@
         <v>1.2984756930417372E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -13197,7 +13185,7 @@
         <v>9.2768962274924673E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -13382,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -13567,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -13752,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -13937,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -14122,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -14307,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -14492,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -14677,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -14862,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -15047,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -15232,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -15417,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -15602,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -15787,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -15972,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -16157,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -16342,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -16527,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -16712,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -16897,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -17082,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -17267,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -17452,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -17637,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -17822,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -18007,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -18192,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -18377,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -18562,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -18747,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -18932,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -19117,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -19302,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -19487,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -19672,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -19857,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -20042,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -20227,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -20412,7 +20400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -20597,7 +20585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -20782,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -20967,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -21152,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -21337,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -21522,7 +21510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -21707,7 +21695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -21892,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -22077,7 +22065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -22262,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -22447,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -22632,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -22817,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -23002,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -23187,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -23372,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -23557,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -23742,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -23927,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -24112,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -24297,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -24482,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -24667,7 +24655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -24852,7 +24840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -25037,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -25222,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -25413,22 +25401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7D0C4-19ED-4268-BC87-E9B45F91D1F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI132"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AZ18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomRight" activeCell="BR25" sqref="BR25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>128</v>
       </c>
@@ -25610,7 +25598,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2016</v>
       </c>
@@ -25792,7 +25780,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -25977,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26162,7 +26150,7 @@
         <v>2.6912975271764598E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -26347,7 +26335,7 @@
         <v>1.66361765084317E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -26532,7 +26520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -26717,7 +26705,7 @@
         <v>5.3530976418969797E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -26902,7 +26890,7 @@
         <v>2.7787053299524699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -27087,7 +27075,7 @@
         <v>8.0738925815293907E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -27272,7 +27260,7 @@
         <v>3.9633313878154599E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -27457,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -27642,7 +27630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -27827,7 +27815,7 @@
         <v>1.54385886867429E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -28012,7 +28000,7 @@
         <v>4.7317364097291398E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -28197,7 +28185,7 @@
         <v>8.1089190272874995E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -28382,7 +28370,7 @@
         <v>8.8256748834222905E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -28567,7 +28555,7 @@
         <v>1.08800451884686E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -28752,7 +28740,7 @@
         <v>8.0464255155902695E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -28937,7 +28925,7 @@
         <v>1.5942771616135599E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -29122,7 +29110,7 @@
         <v>1.42471750182048E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -29307,7 +29295,7 @@
         <v>4.8413157547805202E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -29492,7 +29480,7 @@
         <v>7.42533341317516E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -29677,7 +29665,7 @@
         <v>1.0921483254806101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -29862,7 +29850,7 @@
         <v>2.23675716378876E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -30047,7 +30035,7 @@
         <v>5.2739932835504004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -30232,7 +30220,7 @@
         <v>1.4078058630945601E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -30417,7 +30405,7 @@
         <v>4.2978042613767498E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -30602,7 +30590,7 @@
         <v>7.6398021215577502E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -30787,7 +30775,7 @@
         <v>4.18248216233724E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -30972,7 +30960,7 @@
         <v>1.49547883783282E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -31157,7 +31145,7 @@
         <v>4.0411573798366303E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -31342,7 +31330,7 @@
         <v>5.7227117371403298E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -31527,7 +31515,7 @@
         <v>2.64187659743844E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -31712,7 +31700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -31897,7 +31885,7 @@
         <v>4.3781869860487497E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -32082,7 +32070,7 @@
         <v>1.0099964684635501E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -32267,7 +32255,7 @@
         <v>5.6833871309197104E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -32452,7 +32440,7 @@
         <v>5.1286750904543099E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -32637,7 +32625,7 @@
         <v>3.1817469235995602E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -32822,7 +32810,7 @@
         <v>8.8673108392839008E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -33007,7 +32995,7 @@
         <v>7.4583770059022001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -33192,7 +33180,7 @@
         <v>1.3791831223349401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -33377,7 +33365,7 @@
         <v>7.0627166915024501E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -33562,7 +33550,7 @@
         <v>1.4737703570437501E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -33747,7 +33735,7 @@
         <v>2.07459461440494E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -33932,7 +33920,7 @@
         <v>2.0201947842416398E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -34117,7 +34105,7 @@
         <v>6.8242993929184703E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -34302,7 +34290,7 @@
         <v>8.6626534935040599E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -34487,7 +34475,7 @@
         <v>8.1743808818455794E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -34672,7 +34660,7 @@
         <v>2.1072899215696501E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -34857,7 +34845,7 @@
         <v>3.01468858739056E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -35042,7 +35030,7 @@
         <v>3.8965634623985899E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -35227,7 +35215,7 @@
         <v>4.47693385855323E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -35412,7 +35400,7 @@
         <v>1.0291046809065001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -35597,7 +35585,7 @@
         <v>5.79163270057894E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -35782,7 +35770,7 @@
         <v>2.7473002624846198E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -35967,7 +35955,7 @@
         <v>5.3477506669569602E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -36152,7 +36140,7 @@
         <v>3.4135270075466698E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -36337,7 +36325,7 @@
         <v>5.6561377434570403E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -36522,7 +36510,7 @@
         <v>1.0174608613109801E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -36707,7 +36695,7 @@
         <v>7.4059362820270798E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -36892,7 +36880,7 @@
         <v>4.9779505555609801E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -37077,7 +37065,7 @@
         <v>1.1174425644455901E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -37262,7 +37250,7 @@
         <v>1.1941841218749299E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -37447,7 +37435,7 @@
         <v>1.3307833025410601E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -37632,7 +37620,7 @@
         <v>5.2308137894011399E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -37817,7 +37805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -38002,7 +37990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -38187,7 +38175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -38372,7 +38360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -38557,7 +38545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -38742,7 +38730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -38927,7 +38915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -39112,7 +39100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -39297,7 +39285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -39482,7 +39470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -39667,7 +39655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -39852,7 +39840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -40037,7 +40025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -40222,7 +40210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -40407,7 +40395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -40592,7 +40580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -40777,7 +40765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -40962,7 +40950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -41147,7 +41135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -41332,7 +41320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:61" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -41517,7 +41505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -41702,7 +41690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -41887,7 +41875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -42072,7 +42060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -42257,7 +42245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -42442,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -42627,7 +42615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -42812,7 +42800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -42997,7 +42985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -43182,7 +43170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -43367,7 +43355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -43552,7 +43540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -43737,7 +43725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -43922,7 +43910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -44107,7 +44095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -44292,7 +44280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -44477,7 +44465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -44662,7 +44650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -44847,7 +44835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -45032,7 +45020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -45217,7 +45205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -45402,7 +45390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -45587,7 +45575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -45772,7 +45760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -45957,7 +45945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -46142,7 +46130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -46327,7 +46315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -46512,7 +46500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -46697,7 +46685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -46882,7 +46870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -47067,7 +47055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -47252,7 +47240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -47437,7 +47425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -47622,7 +47610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -47807,7 +47795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -47992,7 +47980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -48177,7 +48165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -48362,7 +48350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -48547,7 +48535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -48732,7 +48720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -48917,7 +48905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -49102,7 +49090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -49287,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -49472,7 +49460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -49657,7 +49645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -49848,44 +49836,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB04191-C723-47C6-AFA9-112A97368C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="155.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="155.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2010</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2011</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2012</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>2013</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>2014</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>2015</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>2016</v>
       </c>
       <c r="I1">
@@ -49934,7 +49922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -50002,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -50070,7 +50058,7 @@
         <v>2.6912975271764598E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -50138,7 +50126,7 @@
         <v>1.66361765084317E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -50206,7 +50194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -50274,7 +50262,7 @@
         <v>5.3530976418969797E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -50342,7 +50330,7 @@
         <v>2.7787053299524699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -50410,7 +50398,7 @@
         <v>8.0738925815293907E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -50478,7 +50466,7 @@
         <v>3.9633313878154599E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -50546,7 +50534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -50614,7 +50602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -50682,7 +50670,7 @@
         <v>1.54385886867429E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -50750,7 +50738,7 @@
         <v>4.7317364097291398E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -50818,7 +50806,7 @@
         <v>8.1089190272874995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -50886,7 +50874,7 @@
         <v>8.8256748834222905E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -50954,7 +50942,7 @@
         <v>1.08800451884686E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -51022,7 +51010,7 @@
         <v>8.0464255155902695E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -51090,7 +51078,7 @@
         <v>1.5942771616135599E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -51158,7 +51146,7 @@
         <v>1.42471750182048E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -51226,7 +51214,7 @@
         <v>4.8413157547805202E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -51294,7 +51282,7 @@
         <v>7.42533341317516E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -51362,7 +51350,7 @@
         <v>1.0921483254806101E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -51430,7 +51418,7 @@
         <v>2.23675716378876E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -51498,7 +51486,7 @@
         <v>5.2739932835504004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -51566,7 +51554,7 @@
         <v>1.4078058630945601E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -51634,7 +51622,7 @@
         <v>4.2978042613767498E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -51702,7 +51690,7 @@
         <v>7.6398021215577502E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -51770,7 +51758,7 @@
         <v>4.18248216233724E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -51838,7 +51826,7 @@
         <v>1.49547883783282E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -51906,7 +51894,7 @@
         <v>4.0411573798366303E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -51974,7 +51962,7 @@
         <v>5.7227117371403298E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -52042,7 +52030,7 @@
         <v>2.64187659743844E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -52110,7 +52098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -52178,7 +52166,7 @@
         <v>4.3781869860487497E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -52246,7 +52234,7 @@
         <v>1.0099964684635501E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -52314,7 +52302,7 @@
         <v>5.6833871309197104E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -52382,7 +52370,7 @@
         <v>5.1286750904543099E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -52450,7 +52438,7 @@
         <v>3.1817469235995602E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -52518,7 +52506,7 @@
         <v>8.8673108392839008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -52586,7 +52574,7 @@
         <v>7.4583770059022001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -52654,7 +52642,7 @@
         <v>1.3791831223349401E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -52722,7 +52710,7 @@
         <v>7.0627166915024501E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -52790,7 +52778,7 @@
         <v>1.4737703570437501E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -52858,7 +52846,7 @@
         <v>2.07459461440494E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -52926,7 +52914,7 @@
         <v>2.0201947842416398E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -52994,7 +52982,7 @@
         <v>6.8242993929184703E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -53062,7 +53050,7 @@
         <v>8.6626534935040599E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -53130,7 +53118,7 @@
         <v>8.1743808818455794E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -53198,7 +53186,7 @@
         <v>2.1072899215696501E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -53266,7 +53254,7 @@
         <v>3.01468858739056E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -53334,7 +53322,7 @@
         <v>3.8965634623985899E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -53402,7 +53390,7 @@
         <v>4.47693385855323E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -53470,7 +53458,7 @@
         <v>1.0291046809065001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -53538,7 +53526,7 @@
         <v>5.79163270057894E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -53606,7 +53594,7 @@
         <v>2.7473002624846198E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -53674,7 +53662,7 @@
         <v>5.3477506669569602E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -53742,7 +53730,7 @@
         <v>3.4135270075466698E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -53810,7 +53798,7 @@
         <v>5.6561377434570403E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -53878,7 +53866,7 @@
         <v>1.0174608613109801E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -53946,7 +53934,7 @@
         <v>7.4059362820270798E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -54014,7 +54002,7 @@
         <v>4.9779505555609801E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -54082,7 +54070,7 @@
         <v>1.1174425644455901E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -54150,7 +54138,7 @@
         <v>1.1941841218749299E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -54218,7 +54206,7 @@
         <v>1.3307833025410601E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -54286,7 +54274,7 @@
         <v>5.2308137894011399E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -54354,88 +54342,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
         <f t="shared" ref="B67:V67" si="0">SUM(B2:B66)</f>
         <v>0.99999999999999856</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999822</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999867</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999833</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <f t="shared" si="0"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999833</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999856</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999856</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999856</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <f t="shared" si="0"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <f t="shared" si="0"/>
         <v>0.999999999999998</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <f t="shared" si="0"/>
         <v>0.999999999999998</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999889</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999856</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999867</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999878</v>
       </c>
-      <c r="R67" s="2">
+      <c r="R67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999833</v>
       </c>
-      <c r="S67" s="2">
+      <c r="S67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999878</v>
       </c>
-      <c r="T67" s="2">
+      <c r="T67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999811</v>
       </c>
-      <c r="U67" s="2">
+      <c r="U67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999845</v>
       </c>
-      <c r="V67" s="2">
+      <c r="V67" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999845</v>
       </c>
@@ -54493,7 +54481,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{05BEBC13-1995-4495-9103-EB14907D545F}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -54772,21 +54760,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7406A56-82DD-4C01-B6DD-FF90907FE045}">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -54840,201 +54826,313 @@
       <c r="A2" t="s">
         <v>128</v>
       </c>
-      <c r="B2">
-        <v>1796272.1158259439</v>
-      </c>
-      <c r="C2">
-        <v>1827099.1519493505</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1841247.1117614596</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1855897.2623667859</v>
-      </c>
-      <c r="F2">
-        <v>1823536.9030283839</v>
-      </c>
-      <c r="G2">
-        <v>1873289.5655284224</v>
-      </c>
-      <c r="H2">
-        <v>1880757.2937637025</v>
-      </c>
-      <c r="I2">
-        <v>1889217.0417071043</v>
-      </c>
-      <c r="J2">
-        <v>1899223.9201220435</v>
-      </c>
-      <c r="K2">
-        <v>1910875.9927395957</v>
-      </c>
-      <c r="L2">
-        <v>1923907.9621444389</v>
-      </c>
-      <c r="M2">
-        <v>1938009.0013318211</v>
-      </c>
-      <c r="N2">
-        <v>1953062.6596210892</v>
-      </c>
-      <c r="O2">
-        <v>1968984.8823856064</v>
-      </c>
-      <c r="P2">
-        <v>1985717.0065005317</v>
+      <c r="B2" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1739709.5240711661</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1746717.585142534</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1753680.7436790785</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1761568.8944329878</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1770899.6411693189</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1781764.4217771664</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1793915.8641101397</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1807064.1427161952</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1821100.6751020327</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1835947.0859341421</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1851548.6757610107</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="B3">
-        <v>1796272.1158259439</v>
-      </c>
-      <c r="C3">
-        <v>1827099.1519493505</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1841247.1117614596</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1855897.2623667859</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1697032.4567081891</v>
-      </c>
-      <c r="G3">
-        <v>1791849.3619128044</v>
-      </c>
-      <c r="H3">
-        <v>1839822.7485029972</v>
-      </c>
-      <c r="I3">
-        <v>1851740.684683163</v>
-      </c>
-      <c r="J3">
-        <v>1865257.1475335816</v>
-      </c>
-      <c r="K3">
-        <v>1877296.3059533441</v>
-      </c>
-      <c r="L3">
-        <v>1890761.2017994332</v>
-      </c>
-      <c r="M3">
-        <v>1905330.6822886334</v>
-      </c>
-      <c r="N3">
-        <v>1920884.4282092063</v>
-      </c>
-      <c r="O3">
-        <v>1937335.5926113245</v>
-      </c>
-      <c r="P3">
-        <v>1954623.5635612539</v>
+      <c r="B3" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1610629.3593210254</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1693484.3473316664</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1741329.4543242736</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1752461.9744972128</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1765087.6752120301</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1776333.4288347308</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1788910.960914704</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1802520.2832842262</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1817049.0060100378</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1832416.0055312898</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1848564.6643628059</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
-      <c r="B4">
-        <v>1796272.1158259439</v>
-      </c>
-      <c r="C4">
-        <v>1827099.1519493505</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1841247.1117614596</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1855897.2623667859</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1697032.4567081891</v>
-      </c>
-      <c r="G4">
-        <v>1580493.5122708161</v>
-      </c>
-      <c r="H4">
-        <v>1595294.7358830171</v>
-      </c>
-      <c r="I4">
-        <v>1651782.3898213764</v>
-      </c>
-      <c r="J4">
-        <v>1665298.8526717948</v>
-      </c>
-      <c r="K4">
-        <v>1677338.0110915573</v>
-      </c>
-      <c r="L4">
-        <v>1690802.906937646</v>
-      </c>
-      <c r="M4">
-        <v>1705372.3874268464</v>
-      </c>
-      <c r="N4">
-        <v>1720926.1333474191</v>
-      </c>
-      <c r="O4">
-        <v>1737377.297749537</v>
-      </c>
-      <c r="P4">
-        <v>1754665.2686994667</v>
+      <c r="B4" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1610629.3593210254</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1514005.991039719</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1526733.8978239468</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1574421.2659855995</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1587046.9667004168</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1598292.7203231177</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1610870.2524030909</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1624479.5747726131</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1639008.2974984245</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1654375.2970196765</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1670523.9558511926</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5">
-        <v>1796272.1158259439</v>
-      </c>
-      <c r="C5">
-        <v>1827099.1519493505</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1841247.1117614596</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1855897.2623667859</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1697032.4567081891</v>
-      </c>
-      <c r="G5">
-        <v>1574505.9015708105</v>
-      </c>
-      <c r="H5">
-        <v>1484380.7822285229</v>
-      </c>
-      <c r="I5">
-        <v>1433599.6905336606</v>
-      </c>
-      <c r="J5">
-        <v>1442209.890843427</v>
-      </c>
-      <c r="K5">
-        <v>1467044.1031977148</v>
-      </c>
-      <c r="L5">
-        <v>1480508.9990438037</v>
-      </c>
-      <c r="M5">
-        <v>1495078.4795330041</v>
-      </c>
-      <c r="N5">
-        <v>1510632.2254535768</v>
-      </c>
-      <c r="O5">
-        <v>1527083.389855695</v>
-      </c>
-      <c r="P5">
-        <v>1544371.3608056246</v>
-      </c>
+      <c r="B5" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1610629.3593210254</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1509024.9317590483</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1433612.3834195891</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1390902.1718408957</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1398490.2939101832</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1419598.1473003582</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1432175.6793803314</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1445785.0017498536</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1460313.724475665</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1475680.723996917</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1491829.3828284328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55042,16 +55140,345 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA070DE-7F62-480C-B36D-3A8287502F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="9.140625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1739709.5240711661</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1746717.585142534</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1753680.7436790785</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1761568.8944329878</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1770899.6411693189</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1781764.4217771664</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1793915.8641101397</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1807064.1427161952</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1821100.6751020327</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1835947.0859341421</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1851548.6757610107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1606942.6922255233</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1689822.589128237</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1737778.4271084627</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1749100.0260742989</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1761911.3877506303</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1773131.400286715</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1785680.142891696</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1799258.3140589369</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1813753.7811113042</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1829085.606176581</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1845197.3013647818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1606942.6922255233</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1510755.0517169135</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1523669.7686960136</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1571475.1529636094</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1584286.5146399408</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1595506.5271760256</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1608055.2697810067</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1621633.4409482477</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1636128.9080006152</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1651460.733065892</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1667572.428254093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1695786.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1712592.5046396842</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1721367.835902439</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1730500.422383721</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1606942.6922255233</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1505785.3938845298</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1430748.8780823562</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1388337.6715413546</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1396125.042338701</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1417197.1962437818</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1429745.9388487628</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1443324.1100160039</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1457819.5770683715</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1473151.4021336483</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1489263.0973218491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -55066,10 +55493,10 @@
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1.2607352267624742E-2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.5443368373236781E-2</v>
       </c>
     </row>
@@ -55077,10 +55504,10 @@
       <c r="A3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4.8185819211443486E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>4.3188951928750219E-2</v>
       </c>
     </row>
@@ -55088,10 +55515,10 @@
       <c r="A4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.71178550410469E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.841142494049644E-2</v>
       </c>
     </row>
@@ -55099,10 +55526,10 @@
       <c r="A5" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.3471366192929773E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.3525713202580099E-2</v>
       </c>
     </row>
@@ -55110,10 +55537,10 @@
       <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.4252181522912513E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.492847441380323E-2</v>
       </c>
     </row>
@@ -55121,10 +55548,10 @@
       <c r="A7" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3.8087429941938262E-3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2.5574001911360571E-3</v>
       </c>
     </row>
@@ -55132,10 +55559,10 @@
       <c r="A8" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1.4188676766056637E-2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.482312680998478E-2</v>
       </c>
     </row>
@@ -55143,10 +55570,10 @@
       <c r="A9" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5.1004706653938255E-2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5.2562031678090447E-2</v>
       </c>
     </row>
@@ -55154,10 +55581,10 @@
       <c r="A10" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.76786990015477408</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.76499310270128673</v>
       </c>
     </row>
@@ -55165,10 +55592,10 @@
       <c r="A11" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>6.2828481650819687E-3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6.5744069344146226E-3</v>
       </c>
     </row>
@@ -55176,10 +55603,10 @@
       <c r="A12" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1.5966539367883028E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.601489450356126E-2</v>
       </c>
     </row>
@@ -55187,10 +55614,10 @@
       <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1.2050260810599719E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1.381399397861886E-2</v>
       </c>
     </row>
@@ -55198,10 +55625,10 @@
       <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>3.1937508515150069E-3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>3.1631103440404231E-3</v>
       </c>
     </row>

--- a/Inputs/Inputs.xlsx
+++ b/Inputs/Inputs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-30\Inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D833360-13FF-4975-95BC-C10922C24F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -16,7 +22,18 @@
     <sheet name="GDP_old" sheetId="9" r:id="rId7"/>
     <sheet name="Aggregated GDP shares 16 vs 14" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -455,9 +472,6 @@
     <t>It contains the structure of final demand of 2016 for every scenario-year.</t>
   </si>
   <si>
-    <t>It contains the level of total Italian GDP for every scenario-year. Input from Sergio Vergalli and Davide Bazzana.</t>
-  </si>
-  <si>
     <t>Projected Trends</t>
   </si>
   <si>
@@ -514,11 +528,14 @@
   <si>
     <t>NoPrefChange</t>
   </si>
+  <si>
+    <t>It contains the level of total Italian GDP for every scenario-year. Input from Economic model.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -585,15 +602,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 3" xfId="2"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -854,28 +874,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +934,7 @@
         <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>143</v>
@@ -931,35 +951,35 @@
         <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ132"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -978,16 +998,16 @@
       <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="7" customWidth="1"/>
-    <col min="36" max="37" width="9.140625" style="7" customWidth="1"/>
-    <col min="53" max="54" width="9.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="7" customWidth="1"/>
+    <col min="19" max="20" width="9.109375" style="7" customWidth="1"/>
+    <col min="36" max="37" width="9.109375" style="7" customWidth="1"/>
+    <col min="53" max="54" width="9.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
@@ -1193,7 +1213,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>2014</v>
       </c>
@@ -1399,7 +1419,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1628,7 @@
         <v>1.0737713454037612E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1837,7 @@
         <v>4.7159488520281766E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2046,7 @@
         <v>1.1074983787982536E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>3.0429793286086654E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2464,7 @@
         <v>4.8991635152382931E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2673,7 @@
         <v>3.5997319546033336E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>1.4760607992159878E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>4.7527749087775328E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>1.9036857751306404E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3489,7 +3509,7 @@
         <v>1.214545487474865E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3718,7 @@
         <v>1.5699119042240802E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3907,7 +3927,7 @@
         <v>1.2532530941182453E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4136,7 @@
         <v>8.8771926470640056E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4325,7 +4345,7 @@
         <v>5.3429476843604492E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4534,7 +4554,7 @@
         <v>1.1642970373638584E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4743,7 +4763,7 @@
         <v>1.2952056196965074E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>1.5695144645405831E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5181,7 @@
         <v>1.4709846392077773E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5370,7 +5390,7 @@
         <v>4.9017896356786148E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5579,7 +5599,7 @@
         <v>3.3572384079673091E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5788,7 +5808,7 @@
         <v>1.0038370537544722E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5997,7 +6017,7 @@
         <v>2.0457126068370701E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6206,7 +6226,7 @@
         <v>7.0649683079584058E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6415,7 +6435,7 @@
         <v>1.0222852983036372E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>2.4814322720016829E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6833,7 +6853,7 @@
         <v>4.7472409385009894E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7042,7 +7062,7 @@
         <v>6.0548174972066042E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7251,7 +7271,7 @@
         <v>1.4199211862014983E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -7460,7 +7480,7 @@
         <v>4.2547175838887022E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -7669,7 +7689,7 @@
         <v>5.9530880308775437E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -7878,7 +7898,7 @@
         <v>1.663164334265892E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +8107,7 @@
         <v>2.9032214247156178E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -8296,7 +8316,7 @@
         <v>4.047948330828794E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -8505,7 +8525,7 @@
         <v>1.0909719311996696E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -8714,7 +8734,7 @@
         <v>5.9817187807355472E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -8923,7 +8943,7 @@
         <v>5.0110100854092864E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9132,7 +9152,7 @@
         <v>3.8639186647234057E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -9341,7 +9361,7 @@
         <v>3.796806697915153E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9550,7 +9570,7 @@
         <v>9.237957200273884E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -9759,7 +9779,7 @@
         <v>1.3624785747309865E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -9968,7 +9988,7 @@
         <v>7.7442380049936562E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -10177,7 +10197,7 @@
         <v>9.9547572775482325E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -10386,7 +10406,7 @@
         <v>2.9463863928726498E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -10595,7 +10615,7 @@
         <v>1.7041106834302371E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -10804,7 +10824,7 @@
         <v>7.5215711645938627E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -11013,7 +11033,7 @@
         <v>4.9911381012344297E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -11222,7 +11242,7 @@
         <v>2.3038421349453626E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -11431,7 +11451,7 @@
         <v>1.6980786558288056E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -11640,7 +11660,7 @@
         <v>1.2787999132675937E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -11849,7 +11869,7 @@
         <v>2.6247621021641358E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -12058,7 +12078,7 @@
         <v>2.5050774177287284E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -12267,7 +12287,7 @@
         <v>7.4311159049827383E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -12476,7 +12496,7 @@
         <v>3.7413160686876404E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -12685,7 +12705,7 @@
         <v>4.4470482054089037E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12894,7 +12914,7 @@
         <v>6.0385275010652911E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -13103,7 +13123,7 @@
         <v>3.5714936135467577E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -13312,7 +13332,7 @@
         <v>6.1713427877023129E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -13521,7 +13541,7 @@
         <v>6.8064815872231716E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -13730,7 +13750,7 @@
         <v>8.2210650075488414E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -13939,7 +13959,7 @@
         <v>3.0059017277558301E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -14148,7 +14168,7 @@
         <v>1.7179959179422894E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -14357,7 +14377,7 @@
         <v>1.1379855241399333E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -14566,7 +14586,7 @@
         <v>1.2984756930417372E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -14775,7 +14795,7 @@
         <v>9.2768962274924673E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -14984,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -15193,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -15402,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -15611,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -15820,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -16029,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -16238,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -16447,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -16656,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -16865,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -17074,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -17283,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -17492,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -17701,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -17910,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -18119,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -18328,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -18537,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -18746,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -18955,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -19164,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -19373,7 +19393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -19582,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -19791,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -20000,7 +20020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -20209,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -20418,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -20627,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -20836,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -21045,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -21254,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -21463,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -21672,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -21881,7 +21901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -22090,7 +22110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -22299,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -22508,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -22717,7 +22737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -22926,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -23135,7 +23155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -23344,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -23553,7 +23573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -23762,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -23971,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -24180,7 +24200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -24389,7 +24409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -24598,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -24807,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -25016,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -25225,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -25434,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -25643,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -25852,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -26061,7 +26081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -26270,7 +26290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -26479,7 +26499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -26688,7 +26708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -26897,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -27106,7 +27126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -27315,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -27524,7 +27544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -27733,7 +27753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -27942,7 +27962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -28151,7 +28171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -28360,7 +28380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -28575,7 +28595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BQ268"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -28585,16 +28605,16 @@
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="7" customWidth="1"/>
-    <col min="36" max="37" width="9.140625" style="7" customWidth="1"/>
-    <col min="53" max="54" width="9.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="167.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="7" customWidth="1"/>
+    <col min="19" max="20" width="9.109375" style="7" customWidth="1"/>
+    <col min="36" max="37" width="9.109375" style="7" customWidth="1"/>
+    <col min="53" max="54" width="9.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
@@ -28800,7 +28820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>2014</v>
       </c>
@@ -29006,7 +29026,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -29215,7 +29235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -29424,7 +29444,7 @@
         <v>2.6912975271764598E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -29633,7 +29653,7 @@
         <v>1.66361765084317E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -29842,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -30051,7 +30071,7 @@
         <v>5.3530976418969797E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -30260,7 +30280,7 @@
         <v>2.7787053299524699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -30469,7 +30489,7 @@
         <v>8.0738925815293907E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -30678,7 +30698,7 @@
         <v>3.9633313878154599E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -30887,7 +30907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -31096,7 +31116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -31305,7 +31325,7 @@
         <v>1.54385886867429E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -31514,7 +31534,7 @@
         <v>4.7317364097291398E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -31723,7 +31743,7 @@
         <v>8.1089190272874995E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -31932,7 +31952,7 @@
         <v>8.8256748834222905E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -32141,7 +32161,7 @@
         <v>1.08800451884686E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -32350,7 +32370,7 @@
         <v>8.0464255155902695E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -32559,7 +32579,7 @@
         <v>1.5942771616135599E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -32768,7 +32788,7 @@
         <v>1.42471750182048E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -32977,7 +32997,7 @@
         <v>4.8413157547805202E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -33186,7 +33206,7 @@
         <v>7.42533341317516E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -33395,7 +33415,7 @@
         <v>1.0921483254806101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -33604,7 +33624,7 @@
         <v>2.23675716378876E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -33813,7 +33833,7 @@
         <v>5.2739932835504004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -34022,7 +34042,7 @@
         <v>1.4078058630945601E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -34231,7 +34251,7 @@
         <v>4.2978042613767498E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -34440,7 +34460,7 @@
         <v>7.6398021215577502E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -34649,7 +34669,7 @@
         <v>4.18248216233724E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -34858,7 +34878,7 @@
         <v>1.49547883783282E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -35067,7 +35087,7 @@
         <v>4.0411573798366303E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -35276,7 +35296,7 @@
         <v>5.7227117371403298E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -35485,7 +35505,7 @@
         <v>2.64187659743844E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -35694,7 +35714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -35903,7 +35923,7 @@
         <v>4.3781869860487497E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -36112,7 +36132,7 @@
         <v>1.0099964684635501E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -36321,7 +36341,7 @@
         <v>5.6833871309197104E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -36530,7 +36550,7 @@
         <v>5.1286750904543099E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -36739,7 +36759,7 @@
         <v>3.1817469235995602E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -36948,7 +36968,7 @@
         <v>8.8673108392839008E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -37157,7 +37177,7 @@
         <v>7.4583770059022001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -37366,7 +37386,7 @@
         <v>1.3791831223349401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -37575,7 +37595,7 @@
         <v>7.0627166915024501E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -37784,7 +37804,7 @@
         <v>1.4737703570437501E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -37993,7 +38013,7 @@
         <v>2.07459461440494E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -38202,7 +38222,7 @@
         <v>2.0201947842416398E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -38411,7 +38431,7 @@
         <v>6.8242993929184703E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -38620,7 +38640,7 @@
         <v>8.6626534935040599E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -38829,7 +38849,7 @@
         <v>8.1743808818455794E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -39038,7 +39058,7 @@
         <v>2.1072899215696501E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -39247,7 +39267,7 @@
         <v>3.01468858739056E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -39456,7 +39476,7 @@
         <v>3.8965634623985899E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -39665,7 +39685,7 @@
         <v>4.47693385855323E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -39874,7 +39894,7 @@
         <v>1.0291046809065001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -40083,7 +40103,7 @@
         <v>5.79163270057894E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -40292,7 +40312,7 @@
         <v>2.7473002624846198E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -40501,7 +40521,7 @@
         <v>5.3477506669569602E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -40710,7 +40730,7 @@
         <v>3.4135270075466698E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -40919,7 +40939,7 @@
         <v>5.6561377434570403E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -41128,7 +41148,7 @@
         <v>1.0174608613109801E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -41337,7 +41357,7 @@
         <v>7.4059362820270798E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -41546,7 +41566,7 @@
         <v>4.9779505555609801E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -41755,7 +41775,7 @@
         <v>1.1174425644455901E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -41964,7 +41984,7 @@
         <v>1.1941841218749299E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -42173,7 +42193,7 @@
         <v>1.3307833025410601E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -42382,7 +42402,7 @@
         <v>5.2308137894011399E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -42591,7 +42611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -42800,7 +42820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -43009,7 +43029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -43218,7 +43238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -43427,7 +43447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -43636,7 +43656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -43845,7 +43865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -44054,7 +44074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -44263,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -44472,7 +44492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -44681,7 +44701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -44890,7 +44910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -45099,7 +45119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -45308,7 +45328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -45517,7 +45537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -45726,7 +45746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -45935,7 +45955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -46144,7 +46164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -46353,7 +46373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -46562,7 +46582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -46771,7 +46791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -46980,7 +47000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -47189,7 +47209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -47398,7 +47418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -47607,7 +47627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -47816,7 +47836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -48025,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -48234,7 +48254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -48443,7 +48463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -48652,7 +48672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -48861,7 +48881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -49070,7 +49090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -49279,7 +49299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -49488,7 +49508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -49697,7 +49717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -49906,7 +49926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -50115,7 +50135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -50324,7 +50344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -50533,7 +50553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -50742,7 +50762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -50951,7 +50971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -51160,7 +51180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -51369,7 +51389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -51578,7 +51598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -51787,7 +51807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -51996,7 +52016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -52205,7 +52225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -52414,7 +52434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -52623,7 +52643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -52832,7 +52852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -53041,7 +53061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -53250,7 +53270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -53459,7 +53479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -53668,7 +53688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -53877,7 +53897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -54086,7 +54106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -54295,7 +54315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -54504,7 +54524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -54713,7 +54733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -54922,7 +54942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -55131,7 +55151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -55340,7 +55360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -55549,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -55758,7 +55778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -55967,7 +55987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -56176,7 +56196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -56184,7 +56204,7 @@
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -56192,7 +56212,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -56200,7 +56220,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -56208,7 +56228,7 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -56216,7 +56236,7 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -56224,7 +56244,7 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -56232,7 +56252,7 @@
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -56240,7 +56260,7 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -56248,7 +56268,7 @@
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -56256,7 +56276,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -56264,7 +56284,7 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -56272,7 +56292,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -56280,7 +56300,7 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -56288,7 +56308,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -56296,7 +56316,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -56304,7 +56324,7 @@
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -56312,7 +56332,7 @@
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -56320,7 +56340,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -56328,7 +56348,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -56336,7 +56356,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -56344,7 +56364,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -56352,7 +56372,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -56360,7 +56380,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -56368,7 +56388,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -56376,7 +56396,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -56384,7 +56404,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -56392,7 +56412,7 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -56400,7 +56420,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -56408,7 +56428,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -56416,7 +56436,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -56424,7 +56444,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -56432,7 +56452,7 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -56440,7 +56460,7 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -56448,7 +56468,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -56456,7 +56476,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -56464,7 +56484,7 @@
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -56472,7 +56492,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -56480,7 +56500,7 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -56488,7 +56508,7 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -56496,7 +56516,7 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -56504,7 +56524,7 @@
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -56512,7 +56532,7 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -56520,7 +56540,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -56528,7 +56548,7 @@
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -56536,7 +56556,7 @@
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -56544,7 +56564,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -56552,7 +56572,7 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -56560,7 +56580,7 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -56568,7 +56588,7 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -56576,7 +56596,7 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -56584,7 +56604,7 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -56592,7 +56612,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -56600,7 +56620,7 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -56608,7 +56628,7 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -56616,7 +56636,7 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -56624,7 +56644,7 @@
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -56632,7 +56652,7 @@
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -56640,7 +56660,7 @@
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -56648,7 +56668,7 @@
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -56656,7 +56676,7 @@
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -56664,7 +56684,7 @@
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -56672,7 +56692,7 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -56680,7 +56700,7 @@
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -56688,7 +56708,7 @@
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -56696,7 +56716,7 @@
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -56704,7 +56724,7 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -56712,7 +56732,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -56720,7 +56740,7 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -56728,7 +56748,7 @@
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -56736,7 +56756,7 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -56744,7 +56764,7 @@
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -56752,7 +56772,7 @@
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -56760,7 +56780,7 @@
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -56768,7 +56788,7 @@
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -56776,7 +56796,7 @@
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -56784,7 +56804,7 @@
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -56792,7 +56812,7 @@
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -56800,7 +56820,7 @@
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -56808,7 +56828,7 @@
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -56816,7 +56836,7 @@
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -56824,7 +56844,7 @@
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -56832,7 +56852,7 @@
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -56840,7 +56860,7 @@
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -56848,7 +56868,7 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -56856,7 +56876,7 @@
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -56864,7 +56884,7 @@
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -56872,7 +56892,7 @@
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -56880,7 +56900,7 @@
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -56888,7 +56908,7 @@
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -56896,7 +56916,7 @@
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -56904,7 +56924,7 @@
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -56912,7 +56932,7 @@
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -56920,7 +56940,7 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -56928,7 +56948,7 @@
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -56936,7 +56956,7 @@
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -56944,7 +56964,7 @@
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -56952,7 +56972,7 @@
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -56960,7 +56980,7 @@
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -56968,7 +56988,7 @@
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -56976,7 +56996,7 @@
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -56984,7 +57004,7 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -56992,7 +57012,7 @@
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -57000,7 +57020,7 @@
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -57008,7 +57028,7 @@
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -57016,7 +57036,7 @@
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -57024,7 +57044,7 @@
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -57032,7 +57052,7 @@
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -57040,7 +57060,7 @@
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -57048,7 +57068,7 @@
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -57056,7 +57076,7 @@
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -57064,7 +57084,7 @@
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -57072,7 +57092,7 @@
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -57080,7 +57100,7 @@
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -57088,7 +57108,7 @@
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -57096,7 +57116,7 @@
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -57104,7 +57124,7 @@
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -57112,7 +57132,7 @@
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -57120,7 +57140,7 @@
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -57128,7 +57148,7 @@
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -57136,7 +57156,7 @@
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -57144,7 +57164,7 @@
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -57152,7 +57172,7 @@
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -57160,7 +57180,7 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -57168,7 +57188,7 @@
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -57176,7 +57196,7 @@
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -57184,7 +57204,7 @@
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -57192,7 +57212,7 @@
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -57200,7 +57220,7 @@
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -57208,7 +57228,7 @@
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -57216,7 +57236,7 @@
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -57224,7 +57244,7 @@
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -57232,7 +57252,7 @@
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -57246,30 +57266,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BQ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="4" max="18" width="9.140625" style="7"/>
-    <col min="19" max="20" width="9.140625" style="7" customWidth="1"/>
-    <col min="21" max="35" width="9.140625" style="7"/>
-    <col min="36" max="37" width="9.140625" style="7" customWidth="1"/>
-    <col min="38" max="52" width="9.140625" style="7"/>
-    <col min="53" max="54" width="9.140625" style="7" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="167.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="7" customWidth="1"/>
+    <col min="4" max="18" width="9.109375" style="7"/>
+    <col min="19" max="20" width="9.109375" style="7" customWidth="1"/>
+    <col min="21" max="35" width="9.109375" style="7"/>
+    <col min="36" max="37" width="9.109375" style="7" customWidth="1"/>
+    <col min="38" max="52" width="9.109375" style="7"/>
+    <col min="53" max="54" width="9.109375" style="7" customWidth="1"/>
+    <col min="55" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
@@ -57475,7 +57495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>2014</v>
       </c>
@@ -57681,7 +57701,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -57890,7 +57910,7 @@
         <v>1.07377112932312E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -58099,7 +58119,7 @@
         <v>4.7159479030130599E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -58308,7 +58328,7 @@
         <v>1.1074981559305399E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -58517,7 +58537,7 @@
         <v>3.0429787162539802E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -58726,7 +58746,7 @@
         <v>4.8991625293539301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -58935,7 +58955,7 @@
         <v>3.5997312302103998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -59144,7 +59164,7 @@
         <v>1.47606050218053E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -59353,7 +59373,7 @@
         <v>4.7527739523517201E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -59562,7 +59582,7 @@
         <v>1.90318230393625E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -59771,7 +59791,7 @@
         <v>1.2145452430655001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -59980,7 +60000,7 @@
         <v>1.5699115883024702E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -60189,7 +60209,7 @@
         <v>1.2532578728006101E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -60398,7 +60418,7 @@
         <v>8.8771908606599895E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -60607,7 +60627,7 @@
         <v>5.3429466091710698E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -60816,7 +60836,7 @@
         <v>1.1642968030662599E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -61025,7 +61045,7 @@
         <v>1.29520535905549E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -61234,7 +61254,7 @@
         <v>1.56951414869895E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
@@ -61443,7 +61463,7 @@
         <v>1.4709843431938201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
@@ -61652,7 +61672,7 @@
         <v>4.9017836183847301E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
@@ -61861,7 +61881,7 @@
         <v>3.3572377323726199E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -62070,7 +62090,7 @@
         <v>1.0038368517470701E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -62279,7 +62299,7 @@
         <v>2.04571219516759E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -62488,7 +62508,7 @@
         <v>7.0649668862377904E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
@@ -62697,7 +62717,7 @@
         <v>1.0222850925838E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -62906,7 +62926,7 @@
         <v>2.4814317726500499E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -63115,7 +63135,7 @@
         <v>4.7472399831888102E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
@@ -63324,7 +63344,7 @@
         <v>6.0548112478828797E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
@@ -63533,7 +63553,7 @@
         <v>1.41992593134437E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
@@ -63742,7 +63762,7 @@
         <v>4.2547167276895698E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
@@ -63951,7 +63971,7 @@
         <v>5.9530918637874797E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
@@ -64160,7 +64180,7 @@
         <v>1.66316903045967E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
@@ -64369,7 +64389,7 @@
         <v>2.90322084048515E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -64578,7 +64598,7 @@
         <v>4.0479475162389297E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
@@ -64787,7 +64807,7 @@
         <v>1.09097171165766E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
@@ -64996,7 +65016,7 @@
         <v>5.9817175770029095E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
@@ -65205,7 +65225,7 @@
         <v>5.0110090770174497E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
@@ -65414,7 +65434,7 @@
         <v>3.8639178871667898E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>37</v>
       </c>
@@ -65623,7 +65643,7 @@
         <v>3.7968059338638299E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
@@ -65832,7 +65852,7 @@
         <v>9.2379553412713297E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>39</v>
       </c>
@@ -66041,7 +66061,7 @@
         <v>1.36248333143333E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>40</v>
       </c>
@@ -66250,7 +66270,7 @@
         <v>7.7441861377694696E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>41</v>
       </c>
@@ -66459,7 +66479,7 @@
         <v>9.9547552743002397E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>42</v>
       </c>
@@ -66668,7 +66688,7 @@
         <v>2.9464361087664401E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>43</v>
       </c>
@@ -66877,7 +66897,7 @@
         <v>1.70411537138416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
@@ -67086,7 +67106,7 @@
         <v>7.5215696509886604E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -67295,7 +67315,7 @@
         <v>4.9911874056521102E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>46</v>
       </c>
@@ -67504,7 +67524,7 @@
         <v>2.3038416713311301E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>47</v>
       </c>
@@ -67713,7 +67733,7 @@
         <v>1.6980833449965899E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
@@ -67922,7 +67942,7 @@
         <v>1.2787996559279801E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
@@ -68131,7 +68151,7 @@
         <v>2.6247615739694902E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -68340,7 +68360,7 @@
         <v>2.50507691361886E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
@@ -68549,7 +68569,7 @@
         <v>7.4306113214746099E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -68758,7 +68778,7 @@
         <v>3.7413153158029899E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
@@ -68967,7 +68987,7 @@
         <v>4.44704731050608E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>54</v>
       </c>
@@ -69176,7 +69196,7 @@
         <v>6.0385262859007402E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>55</v>
       </c>
@@ -69385,7 +69405,7 @@
         <v>3.5714979257174297E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>56</v>
       </c>
@@ -69594,7 +69614,7 @@
         <v>6.1713415458106498E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>57</v>
       </c>
@@ -69803,7 +69823,7 @@
         <v>6.8064802175191999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>58</v>
       </c>
@@ -70012,7 +70032,7 @@
         <v>8.2210130443702602E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>59</v>
       </c>
@@ -70221,7 +70241,7 @@
         <v>3.0059011228624598E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>60</v>
       </c>
@@ -70430,7 +70450,7 @@
         <v>1.71799557222096E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>61</v>
       </c>
@@ -70639,7 +70659,7 @@
         <v>1.13798529513714E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>62</v>
       </c>
@@ -70848,7 +70868,7 @@
         <v>1.29847543174266E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>63</v>
       </c>
@@ -71057,7 +71077,7 @@
         <v>9.2768943606540005E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>64</v>
       </c>
@@ -71266,7 +71286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
@@ -71475,7 +71495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>66</v>
       </c>
@@ -71684,7 +71704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>67</v>
       </c>
@@ -71893,7 +71913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
@@ -72102,7 +72122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>68</v>
       </c>
@@ -72311,7 +72331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>69</v>
       </c>
@@ -72520,7 +72540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>70</v>
       </c>
@@ -72729,7 +72749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -72938,7 +72958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>72</v>
       </c>
@@ -73147,7 +73167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -73356,7 +73376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>74</v>
       </c>
@@ -73565,7 +73585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>75</v>
       </c>
@@ -73774,7 +73794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>76</v>
       </c>
@@ -73983,7 +74003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>77</v>
       </c>
@@ -74192,7 +74212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>78</v>
       </c>
@@ -74401,7 +74421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>79</v>
       </c>
@@ -74610,7 +74630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>80</v>
       </c>
@@ -74819,7 +74839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>81</v>
       </c>
@@ -75028,7 +75048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>82</v>
       </c>
@@ -75237,7 +75257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>83</v>
       </c>
@@ -75446,7 +75466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>84</v>
       </c>
@@ -75655,7 +75675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>85</v>
       </c>
@@ -75864,7 +75884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>86</v>
       </c>
@@ -76073,7 +76093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>87</v>
       </c>
@@ -76282,7 +76302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>88</v>
       </c>
@@ -76491,7 +76511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>89</v>
       </c>
@@ -76700,7 +76720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>90</v>
       </c>
@@ -76909,7 +76929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>91</v>
       </c>
@@ -77118,7 +77138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>92</v>
       </c>
@@ -77327,7 +77347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>93</v>
       </c>
@@ -77536,7 +77556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>94</v>
       </c>
@@ -77745,7 +77765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>95</v>
       </c>
@@ -77954,7 +77974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>96</v>
       </c>
@@ -78163,7 +78183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>97</v>
       </c>
@@ -78372,7 +78392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>98</v>
       </c>
@@ -78581,7 +78601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>99</v>
       </c>
@@ -78790,7 +78810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>100</v>
       </c>
@@ -78999,7 +79019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>101</v>
       </c>
@@ -79208,7 +79228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>102</v>
       </c>
@@ -79417,7 +79437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>103</v>
       </c>
@@ -79626,7 +79646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>104</v>
       </c>
@@ -79835,7 +79855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>105</v>
       </c>
@@ -80044,7 +80064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>106</v>
       </c>
@@ -80253,7 +80273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>107</v>
       </c>
@@ -80462,7 +80482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>44</v>
       </c>
@@ -80671,7 +80691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
@@ -80880,7 +80900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
@@ -81089,7 +81109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>110</v>
       </c>
@@ -81298,7 +81318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>111</v>
       </c>
@@ -81507,7 +81527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>112</v>
       </c>
@@ -81716,7 +81736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>113</v>
       </c>
@@ -81925,7 +81945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>114</v>
       </c>
@@ -82134,7 +82154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>115</v>
       </c>
@@ -82343,7 +82363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>116</v>
       </c>
@@ -82552,7 +82572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>117</v>
       </c>
@@ -82761,7 +82781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>118</v>
       </c>
@@ -82970,7 +82990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>119</v>
       </c>
@@ -83179,7 +83199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>120</v>
       </c>
@@ -83388,7 +83408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>121</v>
       </c>
@@ -83597,7 +83617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>122</v>
       </c>
@@ -83806,7 +83826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>123</v>
       </c>
@@ -84015,7 +84035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>124</v>
       </c>
@@ -84224,7 +84244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>125</v>
       </c>
@@ -84433,7 +84453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>126</v>
       </c>
@@ -84642,7 +84662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>127</v>
       </c>
@@ -84857,22 +84877,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="155.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="155.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -84940,10 +84960,10 @@
         <v>2030</v>
       </c>
       <c r="W1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -85011,7 +85031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -85079,7 +85099,7 @@
         <v>2.6912975271764598E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -85147,7 +85167,7 @@
         <v>1.66361765084317E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -85215,7 +85235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -85283,7 +85303,7 @@
         <v>5.3530976418969797E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -85351,7 +85371,7 @@
         <v>2.7787053299524699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -85419,7 +85439,7 @@
         <v>8.0738925815293907E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -85487,7 +85507,7 @@
         <v>3.9633313878154599E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -85555,7 +85575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -85623,7 +85643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -85691,7 +85711,7 @@
         <v>1.54385886867429E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -85759,7 +85779,7 @@
         <v>4.7317364097291398E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -85827,7 +85847,7 @@
         <v>8.1089190272874995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -85895,7 +85915,7 @@
         <v>8.8256748834222905E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -85963,7 +85983,7 @@
         <v>1.08800451884686E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -86031,7 +86051,7 @@
         <v>8.0464255155902695E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -86099,7 +86119,7 @@
         <v>1.5942771616135599E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -86167,7 +86187,7 @@
         <v>1.42471750182048E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -86235,7 +86255,7 @@
         <v>4.8413157547805202E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -86303,7 +86323,7 @@
         <v>7.42533341317516E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -86371,7 +86391,7 @@
         <v>1.0921483254806101E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -86439,7 +86459,7 @@
         <v>2.23675716378876E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -86507,7 +86527,7 @@
         <v>5.2739932835504004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -86575,7 +86595,7 @@
         <v>1.4078058630945601E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -86643,7 +86663,7 @@
         <v>4.2978042613767498E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -86711,7 +86731,7 @@
         <v>7.6398021215577502E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -86779,7 +86799,7 @@
         <v>4.18248216233724E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -86847,7 +86867,7 @@
         <v>1.49547883783282E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -86915,7 +86935,7 @@
         <v>4.0411573798366303E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -86983,7 +87003,7 @@
         <v>5.7227117371403298E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -87051,7 +87071,7 @@
         <v>2.64187659743844E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -87119,7 +87139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -87187,7 +87207,7 @@
         <v>4.3781869860487497E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -87255,7 +87275,7 @@
         <v>1.0099964684635501E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -87323,7 +87343,7 @@
         <v>5.6833871309197104E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -87391,7 +87411,7 @@
         <v>5.1286750904543099E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -87459,7 +87479,7 @@
         <v>3.1817469235995602E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -87527,7 +87547,7 @@
         <v>8.8673108392839008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -87595,7 +87615,7 @@
         <v>7.4583770059022001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -87663,7 +87683,7 @@
         <v>1.3791831223349401E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -87731,7 +87751,7 @@
         <v>7.0627166915024501E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -87799,7 +87819,7 @@
         <v>1.4737703570437501E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -87867,7 +87887,7 @@
         <v>2.07459461440494E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -87935,7 +87955,7 @@
         <v>2.0201947842416398E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -88003,7 +88023,7 @@
         <v>6.8242993929184703E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -88071,7 +88091,7 @@
         <v>8.6626534935040599E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -88139,7 +88159,7 @@
         <v>8.1743808818455794E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -88207,7 +88227,7 @@
         <v>2.1072899215696501E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -88275,7 +88295,7 @@
         <v>3.01468858739056E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -88343,7 +88363,7 @@
         <v>3.8965634623985899E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -88411,7 +88431,7 @@
         <v>4.47693385855323E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -88479,7 +88499,7 @@
         <v>1.0291046809065001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -88547,7 +88567,7 @@
         <v>5.79163270057894E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -88615,7 +88635,7 @@
         <v>2.7473002624846198E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -88683,7 +88703,7 @@
         <v>5.3477506669569602E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -88751,7 +88771,7 @@
         <v>3.4135270075466698E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -88819,7 +88839,7 @@
         <v>5.6561377434570403E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -88887,7 +88907,7 @@
         <v>1.0174608613109801E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -88955,7 +88975,7 @@
         <v>7.4059362820270798E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -89023,7 +89043,7 @@
         <v>4.9779505555609801E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -89091,7 +89111,7 @@
         <v>1.1174425644455901E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -89159,7 +89179,7 @@
         <v>1.1941841218749299E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -89227,7 +89247,7 @@
         <v>1.3307833025410601E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -89295,7 +89315,7 @@
         <v>5.2308137894011399E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -89363,7 +89383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <f t="shared" ref="B67:V67" si="0">SUM(B2:B66)</f>
         <v>0.99999999999999856</v>
@@ -89502,7 +89522,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0400-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -89781,7 +89801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -89791,14 +89811,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="4" max="18" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="7" customWidth="1"/>
+    <col min="4" max="18" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="7">
         <v>2014</v>
       </c>
@@ -89851,7 +89871,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -89907,7 +89927,7 @@
         <v>1851548.6757610107</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -89963,7 +89983,7 @@
         <v>1848564.6643628059</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -90019,7 +90039,7 @@
         <v>1670523.9558511926</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -90075,116 +90095,116 @@
         <v>1491829.3828284328</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -90197,7 +90217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -90207,15 +90227,15 @@
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="7" customWidth="1"/>
+    <col min="3" max="16" width="9.109375" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="7">
         <v>2014</v>
       </c>
@@ -90268,7 +90288,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
@@ -90324,7 +90344,7 @@
         <v>1851548.6757610107</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -90380,7 +90400,7 @@
         <v>1845197.3013647818</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
@@ -90436,7 +90456,7 @@
         <v>1667572.428254093</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
@@ -90492,49 +90512,49 @@
         <v>1489263.0973218491</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
     </row>
   </sheetData>
@@ -90543,16 +90563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -90565,7 +90585,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3">
         <v>1.2607352267624742E-2</v>
@@ -90587,7 +90607,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3">
         <v>1.71178550410469E-2</v>
@@ -90598,7 +90618,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3">
         <v>2.3471366192929773E-2</v>
@@ -90609,7 +90629,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3">
         <v>2.4252181522912513E-2</v>
@@ -90620,7 +90640,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3">
         <v>3.8087429941938262E-3</v>
@@ -90631,7 +90651,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3">
         <v>1.4188676766056637E-2</v>
@@ -90642,7 +90662,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3">
         <v>5.1004706653938255E-2</v>
@@ -90653,7 +90673,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3">
         <v>0.76786990015477408</v>
@@ -90664,7 +90684,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="3">
         <v>6.2828481650819687E-3</v>
@@ -90675,7 +90695,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3">
         <v>1.5966539367883028E-2</v>
@@ -90686,7 +90706,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3">
         <v>1.2050260810599719E-2</v>
@@ -90697,7 +90717,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3">
         <v>3.1937508515150069E-3</v>

--- a/Inputs/Inputs.xlsx
+++ b/Inputs/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-30\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D833360-13FF-4975-95BC-C10922C24F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB3A6C-E113-453B-B62C-3CD5467799C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="y_pt" sheetId="3" r:id="rId3"/>
     <sheet name="y_fx" sheetId="10" r:id="rId4"/>
     <sheet name="Projected Trends" sheetId="4" r:id="rId5"/>
-    <sheet name="GDP" sheetId="7" r:id="rId6"/>
-    <sheet name="GDP_old" sheetId="9" r:id="rId7"/>
-    <sheet name="Aggregated GDP shares 16 vs 14" sheetId="6" r:id="rId8"/>
+    <sheet name="Aggregated Projected Trends" sheetId="11" r:id="rId6"/>
+    <sheet name="GDP" sheetId="7" r:id="rId7"/>
+    <sheet name="GDP_old" sheetId="9" r:id="rId8"/>
+    <sheet name="Aggregated GDP shares 16 vs 14" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="179">
   <si>
     <t>Products of agriculture, hunting and related services</t>
   </si>
@@ -531,13 +532,59 @@
   <si>
     <t>It contains the level of total Italian GDP for every scenario-year. Input from Economic model.</t>
   </si>
+  <si>
+    <t>Other sectors - commodity</t>
+  </si>
+  <si>
+    <t>Mining - commodity</t>
+  </si>
+  <si>
+    <t>Food, beverages &amp; tobacco - commodity</t>
+  </si>
+  <si>
+    <t>Textile &amp; leather - commodity</t>
+  </si>
+  <si>
+    <t>Wood &amp; wood products - commodity</t>
+  </si>
+  <si>
+    <t>Paper, pulp &amp; printing - commodity</t>
+  </si>
+  <si>
+    <t>Chemicals - commodity</t>
+  </si>
+  <si>
+    <t>Non-metallic minerals - commodity</t>
+  </si>
+  <si>
+    <t>Metals - commodity</t>
+  </si>
+  <si>
+    <t>Other - commodity</t>
+  </si>
+  <si>
+    <t>Machinery - commodity</t>
+  </si>
+  <si>
+    <t>Transport equipment - commodity</t>
+  </si>
+  <si>
+    <t>Utilities - commodity</t>
+  </si>
+  <si>
+    <t>Construction - commodity</t>
+  </si>
+  <si>
+    <t>From 20 to 30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -576,10 +623,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -590,7 +646,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,13 +656,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -617,6 +686,3058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Share of industrial products in final</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> consumption by year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mining - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.4481243884379896E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.56548966737915E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0429787162539802E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0429787162539802E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57472346726347E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.57876002672824E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food, beverages &amp; tobacco - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.8846235302194098E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8404089721199903E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8991625293539301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8991625293539301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9558206288724801E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.01049496748395E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0571633294625197E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.10107148466186E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1434041444659198E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1801320035831898E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2096315032423797E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2380205672519303E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2647531736045299E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2896244885395599E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3135964996010102E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3346940945673903E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3530976418969797E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textile &amp; leather - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.5283825703161902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6715395009672698E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5997312302103998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5997312302103998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5304807000391597E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4636548275199797E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.39501683915008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3281573297978401E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2636968474290103E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1989688226331803E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1330314759766602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.06957617753165E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.00811822754267E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.94840953327179E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8908598024567599E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8342792029388601E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7787053299524699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wood &amp; wood products - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.3866633602674101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6109333596220101E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47606050218053E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47606050218053E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.34599351244962E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2204805372677599E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0979568091240199E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7965274351189411E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6559361849834196E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5495561388647504E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4758284836130997E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4425186483300896E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4468734709879099E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4869808302601698E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5617962527078902E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.66883783543993E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0738925815293907E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper, pulp &amp; printing - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.1947908548329999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0770532380682697E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9430921827453402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9430921827453402E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8139527150107197E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6893347866469801E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.56433607542963E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5013499699016399E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4406239073833198E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3785621649348903E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3138572201904604E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2515879329379303E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1911356518326299E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1321977148234199E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0753908720161502E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0190774769251897E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9633313878154599E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chemicals - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.51007615360981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3538240914059098E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0377147041685803E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0377147041685803E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7328787920488798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4387160505910001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1508596468086299E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8727965824996399E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6047108692186301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.42354281728057E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3595194192137198E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2979060235009899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2383107605520799E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.18052534585602E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1248293521418299E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0703263581689502E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0170325096472E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-metallic minerals - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.44629210147961E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3910542780015901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4220137469831E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4220137469831E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45187438243776E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4806895122757799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5066883868955799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.53142554304645E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.55527509015451E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57703192312224E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5961944068481601E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6146355663038299E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6322070178052501E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6488611140134401E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.66491302681194E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6797578395370501E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.69345939107097E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metals - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.60868658707736E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5091465557896299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4595021621217499E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4595021621217499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4116211221958901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3654165334041698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3179945971375199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2718072267962901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.22727713376407E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1825838955700401E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.13708532691387E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.09329943925998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.05089463725374E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0097009144628E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9699966856760901E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9309703368911899E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8926470704058802E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$11:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.5668083466623497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7776350391532498E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7927073756841301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7927073756841301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.80723564408233E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8212552365605803E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8277345796159501E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83275138186473E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8375881731609701E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8376198711893902E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8310456348625202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8247188693900803E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8179544560930503E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8104640280925102E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8032444410560602E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7940840343695003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7831511555778398E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Machinery - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.01683262158387E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8942553419554398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9017836183847301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9017836183847301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.90904686019095E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9160557952824001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9168688482966703E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9166170017657503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.91637419189438E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9122400177978198E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9027020040477397E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8935230252174798E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8841195461002899E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8742431234250198E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8647238151682003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8537019761176303E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8413157547805202E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transport equipment - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$13:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.5222740409149897E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9350890184148501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3610745841196799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3610745841196799E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7718731234100399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1682884396510698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5443483054485203E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9055797212069099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2538495714070996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5846155289318697E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8956161029791102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1949098301825595E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4822820417572405E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7578675632137495E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0234883872831606E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2765367487161096E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5174817386557702E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilities - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.5328670694862901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6550341974918201E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7451522681676799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7451522681676799E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.83205331359735E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9159117067289001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9944690425740201E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.069752678852E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1423350168914699E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2106038431750501E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2738296996887501E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3346755753260701E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.39299721359078E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4487803699201598E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.50254650347859E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5534347564824901E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6015665013880099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aggregated Projected Trends'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Construction - commodity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aggregated Projected Trends'!$B$15:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.6809854973505306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2245255791008203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0548112478828797E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0548112478828797E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8911428240930201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7332048964475101E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5739512034445299E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4193089181475702E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2702154473543102E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1223107017573898E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9741174759520702E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8315026173349901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6936153162248702E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.55999674548455E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4312095919235003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3053637858884199E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.18248216233724E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-DEB2-4633-AADB-7882A9105164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="699324592"/>
+        <c:axId val="699324920"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Aggregated Projected Trends'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Other sectors - commodity</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Aggregated Projected Trends'!$B$1:$R$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Aggregated Projected Trends'!$B$2:$R$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.59499213620945501</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.596221397990923</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.59780133392804902</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.59780133392804902</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.59932505639559497</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.60079542901395699</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.60148675932710405</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.60202631860019395</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.60254651761671296</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.60256998797076899</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.60191082943419605</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.601276483289232</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.60071165309582097</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.60023437193935303</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.59977434844673905</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.59948254740275297</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.59934653712923802</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DEB2-4633-AADB-7882A9105164}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="699324592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699324920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699324920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699324592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3338</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>327422</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11784EAF-97A4-4DC4-9A2C-207F830F51D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84880,16 +88001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="155.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -89801,6 +92922,954 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6EECC1-2415-4043-B268-41F763A9307C}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="S1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.59499213620945501</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.596221397990923</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.59780133392804902</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.59780133392804902</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.59932505639559497</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.60079542901395699</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.60148675932710405</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.60202631860019395</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.60254651761671296</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.60256998797076899</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.60191082943419605</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.601276483289232</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.60071165309582097</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.60023437193935303</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.59977434844673905</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.59948254740275297</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0.59934653712923802</v>
+      </c>
+      <c r="S2" s="10">
+        <f>(R2-H2)/H2</f>
+        <v>-3.5582199685664537E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5.4481243884379896E-3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4.56548966737915E-3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3.0429787162539802E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3.0429787162539802E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.57472346726347E-3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.57876002672824E-4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.8846235302194098E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.8404089721199903E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4.8991625293539301E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.8991625293539301E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.9558206288724801E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5.01049496748395E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5.0571633294625197E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5.10107148466186E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5.1434041444659198E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5.1801320035831898E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5.2096315032423797E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5.2380205672519303E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <v>5.2647531736045299E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>5.2896244885395599E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5.3135964996010102E-2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>5.3346940945673903E-2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>5.3530976418969797E-2</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" ref="S3:S15" si="0">(R4-H4)/H4</f>
+        <v>5.8517847487815314E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5283825703161902E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.6715395009672698E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3.5997312302103998E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.5997312302103998E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3.5304807000391597E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.4636548275199797E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3.39501683915008E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3.3281573297978401E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3.2636968474290103E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3.1989688226331803E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3.1330314759766602E-2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>3.06957617753165E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3.00811822754267E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.94840953327179E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.8908598024567599E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.8342792029388601E-2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.7787053299524699E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.18153415384882143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.3866633602674101E-3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.6109333596220101E-3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1.47606050218053E-3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.47606050218053E-3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.34599351244962E-3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.2204805372677599E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.0979568091240199E-3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9.7965274351189411E-4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>8.6559361849834196E-4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7.5495561388647504E-4</v>
+      </c>
+      <c r="L6" s="9">
+        <v>6.4758284836130997E-4</v>
+      </c>
+      <c r="M6" s="9">
+        <v>5.4425186483300896E-4</v>
+      </c>
+      <c r="N6" s="9">
+        <v>4.4468734709879099E-4</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3.4869808302601698E-4</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.5617962527078902E-4</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.66883783543993E-4</v>
+      </c>
+      <c r="R6" s="9">
+        <v>8.0738925815293907E-5</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.92646438808489229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5.1947908548329999E-3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5.0770532380682697E-3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4.9430921827453402E-3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.9430921827453402E-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.8139527150107197E-3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.6893347866469801E-3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.56433607542963E-3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4.5013499699016399E-3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4.4406239073833198E-3</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4.3785621649348903E-3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4.3138572201904604E-3</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4.2515879329379303E-3</v>
+      </c>
+      <c r="N7" s="9">
+        <v>4.1911356518326299E-3</v>
+      </c>
+      <c r="O7" s="9">
+        <v>4.1321977148234199E-3</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4.0753908720161502E-3</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>4.0190774769251897E-3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>3.9633313878154599E-3</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.13167406555565672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4.51007615360981E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.3538240914059098E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4.0377147041685803E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.0377147041685803E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.7328787920488798E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.4387160505910001E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3.1508596468086299E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.8727965824996399E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2.6047108692186301E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2.42354281728057E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2.3595194192137198E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2.2979060235009899E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.2383107605520799E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.18052534585602E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2.1248293521418299E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>2.0703263581689502E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2.0170325096472E-2</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.35984691933512003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.44629210147961E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.3910542780015901E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.4220137469831E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.4220137469831E-2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.45187438243776E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.4806895122757799E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.5066883868955799E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.53142554304645E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.55527509015451E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.57703192312224E-2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1.5961944068481601E-2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1.6146355663038299E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1.6322070178052501E-2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1.6488611140134401E-2</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1.66491302681194E-2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1.6797578395370501E-2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1.69345939107097E-2</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12396126883291236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.60868658707736E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.5091465557896299E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.4595021621217499E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2.4595021621217499E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.4116211221958901E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.3654165334041698E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2.3179945971375199E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2.2718072267962901E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2.22727713376407E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.1825838955700401E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2.13708532691387E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2.09329943925998E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.05089463725374E-2</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2.0097009144628E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1.9699966856760901E-2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1.9309703368911899E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1.8926470704058802E-2</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.18349806649976635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5.5668083466623497E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5.7776350391532498E-2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5.7927073756841301E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5.7927073756841301E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.80723564408233E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5.8212552365605803E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>5.8277345796159501E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5.83275138186473E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>5.8375881731609701E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5.8376198711893902E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5.8310456348625202E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>5.8247188693900803E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>5.8179544560930503E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <v>5.8104640280925102E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>5.8032444410560602E-2</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>5.7940840343695003E-2</v>
+      </c>
+      <c r="R11" s="9">
+        <v>5.7831511555778398E-2</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.6502152644447249E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5.01683262158387E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.8942553419554398E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4.9017836183847301E-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.9017836183847301E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4.90904686019095E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4.9160557952824001E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4.9168688482966703E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.9166170017657503E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>4.91637419189438E-2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4.9122400177978198E-2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>4.9027020040477397E-2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4.8935230252174798E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>4.8841195461002899E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>4.8742431234250198E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>4.8647238151682003E-2</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>4.8537019761176303E-2</v>
+      </c>
+      <c r="R12" s="9">
+        <v>4.8413157547805202E-2</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.5366099004719974E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.5222740409149897E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3.9350890184148501E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>4.3610745841196799E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.3610745841196799E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.7718731234100399E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.1682884396510698E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5.5443483054485203E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5.9055797212069099E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>6.2538495714070996E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>6.5846155289318697E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>6.8956161029791102E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>7.1949098301825595E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>7.4822820417572405E-2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>7.7578675632137495E-2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>8.0234883872831606E-2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>8.2765367487161096E-2</v>
+      </c>
+      <c r="R13" s="9">
+        <v>8.5174817386557702E-2</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53624578929961952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.5328670694862901E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.6550341974918201E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.7451522681676799E-2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.7451522681676799E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.83205331359735E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.9159117067289001E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.9944690425740201E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2.069752678852E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2.1423350168914699E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2.2106038431750501E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2.2738296996887501E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2.3346755753260701E-2</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2.39299721359078E-2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2.4487803699201598E-2</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2.50254650347859E-2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>2.5534347564824901E-2</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2.6015665013880099E-2</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30439051489637686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6.6809854973505306E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.2245255791008203E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>6.0548112478828797E-2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6.0548112478828797E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5.8911428240930201E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5.7332048964475101E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.5739512034445299E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5.4193089181475702E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>5.2702154473543102E-2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>5.1223107017573898E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.9741174759520702E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4.8315026173349901E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>4.6936153162248702E-2</v>
+      </c>
+      <c r="O15" s="9">
+        <v>4.55999674548455E-2</v>
+      </c>
+      <c r="P15" s="9">
+        <v>4.4312095919235003E-2</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>4.3053637858884199E-2</v>
+      </c>
+      <c r="R15" s="9">
+        <v>4.18248216233724E-2</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.24963782249249059</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
@@ -90216,7 +94285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
@@ -90562,7 +94631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
